--- a/CH-049 Assignment Problem Part 1.xlsx
+++ b/CH-049 Assignment Problem Part 1.xlsx
@@ -1,22 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://starkeyhearingtechnologies-my.sharepoint.com/personal/mark_biegert_starkey_com/Documents/Desktop/Toss/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91EA3F13-14C8-446F-9B7C-123FD6158DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{C3943964-F3EE-42AD-956F-B4D31FA24ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B9021FF-D7B0-4124-BEE3-B2CC5D45C73D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="1665" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="33180" yWindow="2925" windowWidth="21600" windowHeight="11235" xr2:uid="{D2EF384D-56CE-4622-9815-8DDC8D7A9506}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Original" sheetId="1" r:id="rId1"/>
+    <sheet name="My_Work" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="Dfm9aRaKHEW4eudBc2ZUsSWW4aU7327dF11SESSD+GU="/>
     </ext>
@@ -24,8 +37,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="14">
   <si>
     <t>Question</t>
   </si>
@@ -59,6 +94,15 @@
   <si>
     <t>Person 4</t>
   </si>
+  <si>
+    <t>My Step 1</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>My Step 2</t>
+  </si>
 </sst>
 </file>
 
@@ -67,7 +111,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,8 +155,22 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Aptos Mono"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -129,6 +187,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB4C6E7"/>
         <bgColor rgb="FFB4C6E7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -297,10 +361,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -327,8 +392,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -625,6 +695,333 @@
     </xdr:sp>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>407670</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB4D0727-B0A0-525E-DA9D-78AE9FF0825A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="942975" y="5124450"/>
+          <a:ext cx="9951720" cy="5486400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Certainly! The </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" b="1"/>
+            <a:t>Hungarian method</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> is a computational optimization technique used to address the </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" b="1"/>
+            <a:t>assignment problem</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>. Let’s dive into the details and steps of this method:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" b="1"/>
+            <a:t>Assignment Problem</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>The assignment problem arises in scenarios where we need to allocate resources (such as workers, machines, or other assets) to specific activities. The goal is to minimize the overall cost of allocation or maximize the total profit.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>For example, consider having ‘n’ jobs to be done on ‘m’ machines, with the objective of assigning jobs to machines while minimizing costs (or maximizing profit).</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" b="1"/>
+            <a:t>Steps of the Hungarian Method</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="en-US" b="1"/>
+            <a:t>Step 1: Balance the Problem</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>: </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="2"/>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Check if the number of rows and columns in the cost matrix is equal. If not, balance the problem by adding dummy rows or columns.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="en-US" b="1"/>
+            <a:t>Step 2: Row Reduction</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>: </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="2"/>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Subtract the smallest cost element in each row from all the entries in that row. Ensure that each row has at least one zero.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="en-US" b="1"/>
+            <a:t>Step 3: Column Reduction</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>: </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="2"/>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>In the resultant cost matrix from Step 2, subtract the smallest cost element in each column from all the components in that column. Ensure that each column contains at least one zero.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="en-US" b="1"/>
+            <a:t>Step 4: Assign Zeros</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>: </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="2"/>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Analyze the rows one by one until you find a row with precisely one unmarked zero. Encircle this zero and assign it a task.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="2"/>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Cross out all other zeros in the same column, as they won’t be used in future assignments.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="2"/>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Repeat the process for columns as well.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="en-US" b="1"/>
+            <a:t>Step 5: Optimal Test</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>: </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="2"/>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>The assignment is optimal if each row and column has exactly one encircled zero.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="2"/>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>If any row or column lacks an assignment (i.e., is missing an encircled zero), proceed to Step 5.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="en-US" b="1"/>
+            <a:t>Step 6: Adjust the Matrix</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>: </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="2"/>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Subtract the least cost element from all entries in each column of the final cost matrix created in Step 2. Ensure that each column has at least one zero.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" b="1"/>
+            <a:t>Example</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Suppose we have the following cost matrix:| 10 7 8 | | 6 5 6 | | 8 9 7 | </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>After applying the Hungarian method, we get the optimal assignment:| 0 7 8 | | 6 0 0 | | 2 9 0 | </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="2"/>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>The optimal assignment minimizes the total cost.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>You can find more detailed examples and explanations on platforms like </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id=""/>
+            </a:rPr>
+            <a:t>BYJU’S</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> and </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id=""/>
+            </a:rPr>
+            <a:t>Brilliant Math &amp; Science Wiki</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id=""/>
+            </a:rPr>
+            <a:t>The Hungarian method is a powerful tool for solving assignment problems efficiently! 😊🔢📊</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" baseline="30000">
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id=""/>
+            </a:rPr>
+            <a:t>12</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -828,7 +1225,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <selection activeCell="S12" sqref="S12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2457,4 +2857,1894 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E092A27C-129C-4FFC-B802-CC68ABA505F2}">
+  <dimension ref="A1:Z1001"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y7" sqref="Y7"/>
+    </sheetView>
+    <sheetView workbookViewId="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" customWidth="1"/>
+    <col min="3" max="7" width="8.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" customWidth="1"/>
+    <col min="13" max="14" width="8.6640625" customWidth="1"/>
+    <col min="15" max="15" width="10.44140625" customWidth="1"/>
+    <col min="16" max="26" width="8.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+    </row>
+    <row r="3" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
+      <c r="B3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="9">
+        <v>13</v>
+      </c>
+      <c r="D3" s="9">
+        <v>4</v>
+      </c>
+      <c r="E3" s="9">
+        <v>7</v>
+      </c>
+      <c r="F3" s="10">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="9">
+        <v>9</v>
+      </c>
+      <c r="J3" s="9">
+        <v>0</v>
+      </c>
+      <c r="K3" s="9">
+        <v>3</v>
+      </c>
+      <c r="L3" s="10">
+        <v>2</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" s="9">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>0</v>
+      </c>
+      <c r="R3" s="9">
+        <v>3</v>
+      </c>
+      <c r="S3" s="10">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+    </row>
+    <row r="4" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="2"/>
+      <c r="B4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9">
+        <v>11</v>
+      </c>
+      <c r="E4" s="9">
+        <v>5</v>
+      </c>
+      <c r="F4" s="10">
+        <v>4</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9">
+        <v>10</v>
+      </c>
+      <c r="K4" s="9">
+        <v>4</v>
+      </c>
+      <c r="L4" s="10">
+        <v>3</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="P4" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>10</v>
+      </c>
+      <c r="R4" s="9">
+        <v>4</v>
+      </c>
+      <c r="S4" s="10">
+        <v>1</v>
+      </c>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+    </row>
+    <row r="5" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+      <c r="B5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="9">
+        <v>6</v>
+      </c>
+      <c r="D5" s="9">
+        <v>7</v>
+      </c>
+      <c r="E5" s="9">
+        <v>2</v>
+      </c>
+      <c r="F5" s="10">
+        <v>8</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="9">
+        <v>4</v>
+      </c>
+      <c r="J5" s="9">
+        <v>5</v>
+      </c>
+      <c r="K5" s="9">
+        <v>0</v>
+      </c>
+      <c r="L5" s="10">
+        <v>6</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="P5" s="9">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>5</v>
+      </c>
+      <c r="R5" s="9">
+        <v>0</v>
+      </c>
+      <c r="S5" s="10">
+        <v>4</v>
+      </c>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+    </row>
+    <row r="6" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
+      <c r="B6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1</v>
+      </c>
+      <c r="D6" s="12">
+        <v>3</v>
+      </c>
+      <c r="E6" s="12">
+        <v>5</v>
+      </c>
+      <c r="F6" s="13">
+        <v>9</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0</v>
+      </c>
+      <c r="J6" s="12">
+        <v>2</v>
+      </c>
+      <c r="K6" s="12">
+        <v>4</v>
+      </c>
+      <c r="L6" s="13">
+        <v>8</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="12">
+        <v>2</v>
+      </c>
+      <c r="R6" s="12">
+        <v>4</v>
+      </c>
+      <c r="S6" s="13">
+        <v>6</v>
+      </c>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+    </row>
+    <row r="7" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+    </row>
+    <row r="8" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+    </row>
+    <row r="9" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+    </row>
+    <row r="10" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+    </row>
+    <row r="11" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="7" t="str" cm="1">
+        <f t="array" ref="H11:L15">_xlfn.LET(_xlpm.z,C3:F6,
+     _xlpm.mns, _xlfn.BYROW(_xlpm.z,_xlfn.LAMBDA(_xlpm.r,MIN(_xlpm.r))),
+     _xlfn.HSTACK(_xlfn.VSTACK("",B3:B6),_xlfn.HSTACK(_xlfn.VSTACK(C2:F2,_xlpm.z-_xlpm.mns)))
+)</f>
+        <v/>
+      </c>
+      <c r="I11" s="4" t="str">
+        <v>Task 1</v>
+      </c>
+      <c r="J11" s="4" t="str">
+        <v>Task 2</v>
+      </c>
+      <c r="K11" s="5" t="str">
+        <v>Task 3</v>
+      </c>
+      <c r="L11" s="6" t="str">
+        <v>Task 4</v>
+      </c>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="7" t="str" cm="1">
+        <f t="array" ref="O11:S15">_xlfn.LET(_xlpm.z,I3:L6,
+     _xlpm.mns, _xlfn.BYCOL(_xlpm.z,_xlfn.LAMBDA(_xlpm.r,MIN(_xlpm.r))),
+     _xlfn.HSTACK(_xlfn.VSTACK("",H3:H6),_xlfn.HSTACK(_xlfn.VSTACK(I2:L2,_xlpm.z-_xlpm.mns)))
+)</f>
+        <v/>
+      </c>
+      <c r="P11" s="4" t="str">
+        <v>Task 1</v>
+      </c>
+      <c r="Q11" s="4" t="str">
+        <v>Task 2</v>
+      </c>
+      <c r="R11" s="5" t="str">
+        <v>Task 3</v>
+      </c>
+      <c r="S11" s="6" t="str">
+        <v>Task 4</v>
+      </c>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
+    </row>
+    <row r="12" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="8" t="str">
+        <v>Person 1</v>
+      </c>
+      <c r="I12" s="9">
+        <v>9</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9">
+        <v>3</v>
+      </c>
+      <c r="L12" s="10">
+        <v>2</v>
+      </c>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="8" t="str">
+        <v>Person 1</v>
+      </c>
+      <c r="P12" s="9">
+        <v>9</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>0</v>
+      </c>
+      <c r="R12" s="9">
+        <v>3</v>
+      </c>
+      <c r="S12" s="10">
+        <v>0</v>
+      </c>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+    </row>
+    <row r="13" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="14"/>
+      <c r="H13" s="8" t="str">
+        <v>Person 2</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0</v>
+      </c>
+      <c r="J13" s="9">
+        <v>10</v>
+      </c>
+      <c r="K13" s="9">
+        <v>4</v>
+      </c>
+      <c r="L13" s="10">
+        <v>3</v>
+      </c>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="8" t="str">
+        <v>Person 2</v>
+      </c>
+      <c r="P13" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>10</v>
+      </c>
+      <c r="R13" s="9">
+        <v>4</v>
+      </c>
+      <c r="S13" s="10">
+        <v>1</v>
+      </c>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
+    </row>
+    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H14" s="8" t="str">
+        <v>Person 3</v>
+      </c>
+      <c r="I14" s="9">
+        <v>4</v>
+      </c>
+      <c r="J14" s="9">
+        <v>5</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="10">
+        <v>6</v>
+      </c>
+      <c r="O14" s="8" t="str">
+        <v>Person 3</v>
+      </c>
+      <c r="P14" s="9">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>5</v>
+      </c>
+      <c r="R14" s="9">
+        <v>0</v>
+      </c>
+      <c r="S14" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="H15" s="11" t="str">
+        <v>Person 4</v>
+      </c>
+      <c r="I15" s="12">
+        <v>0</v>
+      </c>
+      <c r="J15" s="12">
+        <v>2</v>
+      </c>
+      <c r="K15" s="12">
+        <v>4</v>
+      </c>
+      <c r="L15" s="13">
+        <v>8</v>
+      </c>
+      <c r="O15" s="11" t="str">
+        <v>Person 4</v>
+      </c>
+      <c r="P15" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="12">
+        <v>2</v>
+      </c>
+      <c r="R15" s="12">
+        <v>4</v>
+      </c>
+      <c r="S15" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="8:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H18" t="s">
+        <v>12</v>
+      </c>
+      <c r="O18" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="8:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I19" s="22" t="b" cm="1">
+        <f t="array" ref="I19:L22">I3:L6=I12:L15</f>
+        <v>1</v>
+      </c>
+      <c r="J19" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="P19" s="22" t="b" cm="1">
+        <f t="array" ref="P19:S22">P3:S6=P12:S15</f>
+        <v>1</v>
+      </c>
+      <c r="Q19" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="R19" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="S19" s="22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="8:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I20" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="P20" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="R20" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="S20" s="22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="8:19" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="I21" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="K21" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="P21" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="R21" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="S21" s="22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="8:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I22" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="K22" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="P22" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="R22" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="S22" s="22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="8:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I23" s="15"/>
+      <c r="L23" s="15"/>
+    </row>
+    <row r="24" spans="8:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I24" s="15"/>
+      <c r="L24" s="15"/>
+    </row>
+    <row r="25" spans="8:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I25" s="15"/>
+      <c r="L25" s="15"/>
+    </row>
+    <row r="26" spans="8:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I26" s="15"/>
+      <c r="L26" s="15"/>
+    </row>
+    <row r="27" spans="8:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I27" s="15"/>
+      <c r="L27" s="15"/>
+    </row>
+    <row r="28" spans="8:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I28" s="15"/>
+      <c r="L28" s="15"/>
+    </row>
+    <row r="29" spans="8:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I29" s="15"/>
+      <c r="L29" s="15"/>
+    </row>
+    <row r="30" spans="8:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I30" s="15"/>
+      <c r="L30" s="15"/>
+    </row>
+    <row r="31" spans="8:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I31" s="15"/>
+      <c r="L31" s="15"/>
+    </row>
+    <row r="32" spans="8:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I32" s="15"/>
+      <c r="L32" s="15"/>
+    </row>
+    <row r="33" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I33" s="15"/>
+      <c r="L33" s="15"/>
+    </row>
+    <row r="34" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I34" s="15"/>
+      <c r="L34" s="15"/>
+    </row>
+    <row r="35" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I35" s="15"/>
+      <c r="L35" s="15"/>
+    </row>
+    <row r="36" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I36" s="15"/>
+      <c r="L36" s="15"/>
+    </row>
+    <row r="37" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I37" s="15"/>
+      <c r="L37" s="15"/>
+    </row>
+    <row r="38" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I38" s="15"/>
+      <c r="L38" s="15"/>
+    </row>
+    <row r="39" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I39" s="15"/>
+      <c r="L39" s="15"/>
+    </row>
+    <row r="40" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I40" s="15"/>
+      <c r="L40" s="15"/>
+    </row>
+    <row r="41" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I41" s="15"/>
+      <c r="L41" s="15"/>
+    </row>
+    <row r="42" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L42" s="15"/>
+    </row>
+    <row r="43" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L43" s="15"/>
+    </row>
+    <row r="44" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L44" s="15"/>
+    </row>
+    <row r="45" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L45" s="15"/>
+    </row>
+    <row r="46" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L46" s="15"/>
+    </row>
+    <row r="47" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L47" s="15"/>
+    </row>
+    <row r="48" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L48" s="15"/>
+    </row>
+    <row r="49" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L49" s="15"/>
+    </row>
+    <row r="50" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L50" s="15"/>
+    </row>
+    <row r="51" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L51" s="15"/>
+    </row>
+    <row r="52" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L52" s="15"/>
+    </row>
+    <row r="53" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L53" s="15"/>
+    </row>
+    <row r="54" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L54" s="15"/>
+    </row>
+    <row r="55" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L55" s="15"/>
+    </row>
+    <row r="56" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L56" s="15"/>
+    </row>
+    <row r="57" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L57" s="15"/>
+    </row>
+    <row r="58" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L58" s="15"/>
+    </row>
+    <row r="59" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L59" s="15"/>
+    </row>
+    <row r="60" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L60" s="15"/>
+    </row>
+    <row r="61" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L61" s="15"/>
+    </row>
+    <row r="62" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L62" s="15"/>
+    </row>
+    <row r="63" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L63" s="15"/>
+    </row>
+    <row r="64" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L64" s="15"/>
+    </row>
+    <row r="65" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L65" s="15"/>
+    </row>
+    <row r="66" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L66" s="15"/>
+    </row>
+    <row r="67" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L67" s="15"/>
+    </row>
+    <row r="68" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L68" s="15"/>
+    </row>
+    <row r="69" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L69" s="15"/>
+    </row>
+    <row r="70" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L70" s="15"/>
+    </row>
+    <row r="71" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L71" s="15"/>
+    </row>
+    <row r="72" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L72" s="15"/>
+    </row>
+    <row r="73" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L73" s="15"/>
+    </row>
+    <row r="74" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L74" s="15"/>
+    </row>
+    <row r="75" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L75" s="15"/>
+    </row>
+    <row r="76" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L76" s="15"/>
+    </row>
+    <row r="77" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="O1:S1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/CH-049 Assignment Problem Part 1.xlsx
+++ b/CH-049 Assignment Problem Part 1.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://starkeyhearingtechnologies-my.sharepoint.com/personal/mark_biegert_starkey_com/Documents/Desktop/Toss/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{C3943964-F3EE-42AD-956F-B4D31FA24ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B9021FF-D7B0-4124-BEE3-B2CC5D45C73D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD81B3C-78F6-4B06-829E-9086AE3935BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="1665" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView minimized="1" xWindow="33180" yWindow="2925" windowWidth="21600" windowHeight="11235" xr2:uid="{D2EF384D-56CE-4622-9815-8DDC8D7A9506}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D2EF384D-56CE-4622-9815-8DDC8D7A9506}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
     <sheet name="My_Work" sheetId="2" r:id="rId2"/>
+    <sheet name="Alternative" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="15">
   <si>
     <t>Question</t>
   </si>
@@ -102,6 +103,9 @@
   </si>
   <si>
     <t>My Step 2</t>
+  </si>
+  <si>
+    <t>pretty much what I did</t>
   </si>
 </sst>
 </file>
@@ -384,6 +388,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -392,10 +400,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
@@ -1247,30 +1251,30 @@
   <sheetData>
     <row r="1" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="22"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="18"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="22"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="18"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="22"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
@@ -2863,7 +2867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E092A27C-129C-4FFC-B802-CC68ABA505F2}">
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Y7" sqref="Y7"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
@@ -2885,30 +2889,30 @@
   <sheetData>
     <row r="1" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="22"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="18"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="22"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="18"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="22"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
@@ -3264,7 +3268,7 @@
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="16" t="s">
         <v>11</v>
       </c>
       <c r="H9" s="14"/>
@@ -3273,7 +3277,7 @@
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
-      <c r="N9" s="20" t="s">
+      <c r="N9" s="16" t="s">
         <v>13</v>
       </c>
       <c r="O9" s="14"/>
@@ -3296,7 +3300,7 @@
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
-      <c r="G10" s="20"/>
+      <c r="G10" s="16"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
@@ -3521,113 +3525,113 @@
       <c r="H18" t="s">
         <v>12</v>
       </c>
-      <c r="O18" s="21" t="s">
+      <c r="O18" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="8:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I19" s="22" t="b" cm="1">
+      <c r="I19" s="18" t="b" cm="1">
         <f t="array" ref="I19:L22">I3:L6=I12:L15</f>
         <v>1</v>
       </c>
-      <c r="J19" s="22" t="b">
+      <c r="J19" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="K19" s="22" t="b">
+      <c r="K19" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="L19" s="22" t="b">
+      <c r="L19" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="P19" s="22" t="b" cm="1">
+      <c r="P19" s="18" t="b" cm="1">
         <f t="array" ref="P19:S22">P3:S6=P12:S15</f>
         <v>1</v>
       </c>
-      <c r="Q19" s="22" t="b">
+      <c r="Q19" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="R19" s="22" t="b">
+      <c r="R19" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="S19" s="22" t="b">
+      <c r="S19" s="18" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="8:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I20" s="22" t="b">
+      <c r="I20" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="J20" s="22" t="b">
+      <c r="J20" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="K20" s="22" t="b">
+      <c r="K20" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="L20" s="22" t="b">
+      <c r="L20" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="P20" s="22" t="b">
+      <c r="P20" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="Q20" s="22" t="b">
+      <c r="Q20" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="R20" s="22" t="b">
+      <c r="R20" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="S20" s="22" t="b">
+      <c r="S20" s="18" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="8:19" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="I21" s="23" t="b">
+      <c r="I21" s="19" t="b">
         <v>1</v>
       </c>
-      <c r="J21" s="22" t="b">
+      <c r="J21" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="K21" s="22" t="b">
+      <c r="K21" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="L21" s="23" t="b">
+      <c r="L21" s="19" t="b">
         <v>1</v>
       </c>
-      <c r="P21" s="22" t="b">
+      <c r="P21" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="Q21" s="22" t="b">
+      <c r="Q21" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="R21" s="22" t="b">
+      <c r="R21" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="S21" s="22" t="b">
+      <c r="S21" s="18" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="8:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I22" s="23" t="b">
+      <c r="I22" s="19" t="b">
         <v>1</v>
       </c>
-      <c r="J22" s="22" t="b">
+      <c r="J22" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="K22" s="22" t="b">
+      <c r="K22" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="L22" s="23" t="b">
+      <c r="L22" s="19" t="b">
         <v>1</v>
       </c>
-      <c r="P22" s="22" t="b">
+      <c r="P22" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="Q22" s="22" t="b">
+      <c r="Q22" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="R22" s="22" t="b">
+      <c r="R22" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="S22" s="22" t="b">
+      <c r="S22" s="18" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4747,4 +4751,1581 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C752F9-CECA-420A-82F5-FCEAC19CF3B6}">
+  <dimension ref="A1:Z985"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+    <sheetView workbookViewId="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" customWidth="1"/>
+    <col min="3" max="7" width="8.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" customWidth="1"/>
+    <col min="13" max="14" width="8.6640625" customWidth="1"/>
+    <col min="15" max="15" width="10.44140625" customWidth="1"/>
+    <col min="16" max="26" width="8.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+    </row>
+    <row r="3" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
+      <c r="B3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="9">
+        <v>13</v>
+      </c>
+      <c r="D3" s="9">
+        <v>4</v>
+      </c>
+      <c r="E3" s="9">
+        <v>7</v>
+      </c>
+      <c r="F3" s="10">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="9">
+        <v>9</v>
+      </c>
+      <c r="J3" s="9">
+        <v>0</v>
+      </c>
+      <c r="K3" s="9">
+        <v>3</v>
+      </c>
+      <c r="L3" s="10">
+        <v>2</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" s="9">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>0</v>
+      </c>
+      <c r="R3" s="9">
+        <v>3</v>
+      </c>
+      <c r="S3" s="10">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+    </row>
+    <row r="4" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="2"/>
+      <c r="B4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9">
+        <v>11</v>
+      </c>
+      <c r="E4" s="9">
+        <v>5</v>
+      </c>
+      <c r="F4" s="10">
+        <v>4</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9">
+        <v>10</v>
+      </c>
+      <c r="K4" s="9">
+        <v>4</v>
+      </c>
+      <c r="L4" s="10">
+        <v>3</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="P4" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>10</v>
+      </c>
+      <c r="R4" s="9">
+        <v>4</v>
+      </c>
+      <c r="S4" s="10">
+        <v>1</v>
+      </c>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+    </row>
+    <row r="5" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+      <c r="B5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="9">
+        <v>6</v>
+      </c>
+      <c r="D5" s="9">
+        <v>7</v>
+      </c>
+      <c r="E5" s="9">
+        <v>2</v>
+      </c>
+      <c r="F5" s="10">
+        <v>8</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="9">
+        <v>4</v>
+      </c>
+      <c r="J5" s="9">
+        <v>5</v>
+      </c>
+      <c r="K5" s="9">
+        <v>0</v>
+      </c>
+      <c r="L5" s="10">
+        <v>6</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="P5" s="9">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>5</v>
+      </c>
+      <c r="R5" s="9">
+        <v>0</v>
+      </c>
+      <c r="S5" s="10">
+        <v>4</v>
+      </c>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+    </row>
+    <row r="6" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
+      <c r="B6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1</v>
+      </c>
+      <c r="D6" s="12">
+        <v>3</v>
+      </c>
+      <c r="E6" s="12">
+        <v>5</v>
+      </c>
+      <c r="F6" s="13">
+        <v>9</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0</v>
+      </c>
+      <c r="J6" s="12">
+        <v>2</v>
+      </c>
+      <c r="K6" s="12">
+        <v>4</v>
+      </c>
+      <c r="L6" s="13">
+        <v>8</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="12">
+        <v>2</v>
+      </c>
+      <c r="R6" s="12">
+        <v>4</v>
+      </c>
+      <c r="S6" s="13">
+        <v>6</v>
+      </c>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+    </row>
+    <row r="7" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+    </row>
+    <row r="8" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14" t="str" cm="1">
+        <f t="array" ref="F8:J12">_xlfn.LET(_xlpm.s, C3:F6-_xlfn.BYROW(C3:F6, _xlfn.LAMBDA(_xlpm.r, MIN(_xlpm.r))), _xlfn.VSTACK(_xlfn.HSTACK("", C2:F2), _xlfn.HSTACK(B3:B6, _xlpm.s-_xlfn.BYCOL(_xlpm.s, _xlfn.LAMBDA(_xlpm.c, MIN(_xlpm.c))))))</f>
+        <v/>
+      </c>
+      <c r="G8" s="14" t="str">
+        <v>Task 1</v>
+      </c>
+      <c r="H8" s="14" t="str">
+        <v>Task 2</v>
+      </c>
+      <c r="I8" s="14" t="str">
+        <v>Task 3</v>
+      </c>
+      <c r="J8" s="14" t="str">
+        <v>Task 4</v>
+      </c>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+    </row>
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F9" t="str">
+        <v>Person 1</v>
+      </c>
+      <c r="G9">
+        <v>9</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="15"/>
+    </row>
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F10" t="str">
+        <v>Person 2</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="L10" s="15"/>
+    </row>
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F11" t="str">
+        <v>Person 3</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+      <c r="L11" s="15"/>
+    </row>
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F12" t="str">
+        <v>Person 4</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <v>6</v>
+      </c>
+      <c r="L12" s="15"/>
+    </row>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I13" s="15"/>
+      <c r="L13" s="15"/>
+    </row>
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F14" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="15"/>
+      <c r="L14" s="15"/>
+    </row>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I15" s="15"/>
+      <c r="L15" s="15"/>
+    </row>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I16" s="15"/>
+      <c r="L16" s="15"/>
+    </row>
+    <row r="17" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I17" s="15"/>
+      <c r="L17" s="15"/>
+    </row>
+    <row r="18" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I18" s="15"/>
+      <c r="L18" s="15"/>
+    </row>
+    <row r="19" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I19" s="15"/>
+      <c r="L19" s="15"/>
+    </row>
+    <row r="20" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I20" s="15"/>
+      <c r="L20" s="15"/>
+    </row>
+    <row r="21" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I21" s="15"/>
+      <c r="L21" s="15"/>
+    </row>
+    <row r="22" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I22" s="15"/>
+      <c r="L22" s="15"/>
+    </row>
+    <row r="23" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I23" s="15"/>
+      <c r="L23" s="15"/>
+    </row>
+    <row r="24" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I24" s="15"/>
+      <c r="L24" s="15"/>
+    </row>
+    <row r="25" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I25" s="15"/>
+      <c r="L25" s="15"/>
+    </row>
+    <row r="26" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L26" s="15"/>
+    </row>
+    <row r="27" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L27" s="15"/>
+    </row>
+    <row r="28" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L28" s="15"/>
+    </row>
+    <row r="29" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L29" s="15"/>
+    </row>
+    <row r="30" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L30" s="15"/>
+    </row>
+    <row r="31" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L31" s="15"/>
+    </row>
+    <row r="32" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L32" s="15"/>
+    </row>
+    <row r="33" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L33" s="15"/>
+    </row>
+    <row r="34" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L34" s="15"/>
+    </row>
+    <row r="35" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L35" s="15"/>
+    </row>
+    <row r="36" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L36" s="15"/>
+    </row>
+    <row r="37" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L37" s="15"/>
+    </row>
+    <row r="38" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L38" s="15"/>
+    </row>
+    <row r="39" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L39" s="15"/>
+    </row>
+    <row r="40" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L40" s="15"/>
+    </row>
+    <row r="41" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L41" s="15"/>
+    </row>
+    <row r="42" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L42" s="15"/>
+    </row>
+    <row r="43" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L43" s="15"/>
+    </row>
+    <row r="44" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L44" s="15"/>
+    </row>
+    <row r="45" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L45" s="15"/>
+    </row>
+    <row r="46" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L46" s="15"/>
+    </row>
+    <row r="47" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L47" s="15"/>
+    </row>
+    <row r="48" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L48" s="15"/>
+    </row>
+    <row r="49" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L49" s="15"/>
+    </row>
+    <row r="50" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L50" s="15"/>
+    </row>
+    <row r="51" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L51" s="15"/>
+    </row>
+    <row r="52" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L52" s="15"/>
+    </row>
+    <row r="53" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L53" s="15"/>
+    </row>
+    <row r="54" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L54" s="15"/>
+    </row>
+    <row r="55" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L55" s="15"/>
+    </row>
+    <row r="56" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L56" s="15"/>
+    </row>
+    <row r="57" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L57" s="15"/>
+    </row>
+    <row r="58" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L58" s="15"/>
+    </row>
+    <row r="59" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L59" s="15"/>
+    </row>
+    <row r="60" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L60" s="15"/>
+    </row>
+    <row r="61" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="O1:S1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/CH-049 Assignment Problem Part 1.xlsx
+++ b/CH-049 Assignment Problem Part 1.xlsx
@@ -8,16 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD81B3C-78F6-4B06-829E-9086AE3935BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3BC2810-6D64-4E3B-B247-A5C0B0ABBEBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D2EF384D-56CE-4622-9815-8DDC8D7A9506}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{D2EF384D-56CE-4622-9815-8DDC8D7A9506}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
     <sheet name="My_Work" sheetId="2" r:id="rId2"/>
     <sheet name="Alternative" sheetId="3" r:id="rId3"/>
+    <sheet name="Alternative2" sheetId="5" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="HD_Date">_xlfn.LET(_xlpm.dt, TODAY(),      _xlpm.y,  YEAR(_xlpm.dt),      _xlpm.m,  MONTH(_xlpm.dt),      _xlpm.d,  DAY(_xlpm.dt),      TEXT(DATE(_xlpm.y,_xlpm.m,_xlpm.d),"dd-mmm-yyyy")     )</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -61,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="16">
   <si>
     <t>Question</t>
   </si>
@@ -107,6 +110,9 @@
   <si>
     <t>pretty much what I did</t>
   </si>
+  <si>
+    <t>Again, variation on what I did</t>
+  </si>
 </sst>
 </file>
 
@@ -115,7 +121,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,8 +179,23 @@
       <name val="Aptos Mono"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,6 +217,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59996337778862885"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,9 +398,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -401,9 +436,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Intro_Hd" xfId="3" xr:uid="{701E6E29-A1A6-4E29-9060-C9B9468EF55C}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{957D55FC-EF27-4AAC-A585-D82C3C593D61}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1229,8 +1266,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-    <sheetView tabSelected="1" workbookViewId="1">
+    <sheetView workbookViewId="0">
       <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
@@ -2867,10 +2903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E092A27C-129C-4FFC-B802-CC68ABA505F2}">
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4757,10 +4790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C752F9-CECA-420A-82F5-FCEAC19CF3B6}">
   <dimension ref="A1:Z985"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6328,4 +6358,1709 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA6BFB4F-5A80-4DB8-BA21-9B0C7150B3AC}">
+  <dimension ref="A1:Z1000"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" customWidth="1"/>
+    <col min="3" max="7" width="8.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" customWidth="1"/>
+    <col min="13" max="14" width="8.6640625" customWidth="1"/>
+    <col min="15" max="15" width="10.44140625" customWidth="1"/>
+    <col min="16" max="26" width="8.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+    </row>
+    <row r="3" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
+      <c r="B3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="9">
+        <v>13</v>
+      </c>
+      <c r="D3" s="9">
+        <v>4</v>
+      </c>
+      <c r="E3" s="9">
+        <v>7</v>
+      </c>
+      <c r="F3" s="10">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="9">
+        <v>9</v>
+      </c>
+      <c r="J3" s="9">
+        <v>0</v>
+      </c>
+      <c r="K3" s="9">
+        <v>3</v>
+      </c>
+      <c r="L3" s="10">
+        <v>2</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" s="9">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>0</v>
+      </c>
+      <c r="R3" s="9">
+        <v>3</v>
+      </c>
+      <c r="S3" s="10">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+    </row>
+    <row r="4" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="2"/>
+      <c r="B4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9">
+        <v>11</v>
+      </c>
+      <c r="E4" s="9">
+        <v>5</v>
+      </c>
+      <c r="F4" s="10">
+        <v>4</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9">
+        <v>10</v>
+      </c>
+      <c r="K4" s="9">
+        <v>4</v>
+      </c>
+      <c r="L4" s="10">
+        <v>3</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="P4" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>10</v>
+      </c>
+      <c r="R4" s="9">
+        <v>4</v>
+      </c>
+      <c r="S4" s="10">
+        <v>1</v>
+      </c>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+    </row>
+    <row r="5" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+      <c r="B5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="9">
+        <v>6</v>
+      </c>
+      <c r="D5" s="9">
+        <v>7</v>
+      </c>
+      <c r="E5" s="9">
+        <v>2</v>
+      </c>
+      <c r="F5" s="10">
+        <v>8</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="9">
+        <v>4</v>
+      </c>
+      <c r="J5" s="9">
+        <v>5</v>
+      </c>
+      <c r="K5" s="9">
+        <v>0</v>
+      </c>
+      <c r="L5" s="10">
+        <v>6</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="P5" s="9">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>5</v>
+      </c>
+      <c r="R5" s="9">
+        <v>0</v>
+      </c>
+      <c r="S5" s="10">
+        <v>4</v>
+      </c>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+    </row>
+    <row r="6" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
+      <c r="B6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1</v>
+      </c>
+      <c r="D6" s="12">
+        <v>3</v>
+      </c>
+      <c r="E6" s="12">
+        <v>5</v>
+      </c>
+      <c r="F6" s="13">
+        <v>9</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0</v>
+      </c>
+      <c r="J6" s="12">
+        <v>2</v>
+      </c>
+      <c r="K6" s="12">
+        <v>4</v>
+      </c>
+      <c r="L6" s="13">
+        <v>8</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="12">
+        <v>2</v>
+      </c>
+      <c r="R6" s="12">
+        <v>4</v>
+      </c>
+      <c r="S6" s="13">
+        <v>6</v>
+      </c>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+    </row>
+    <row r="7" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+    </row>
+    <row r="8" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+    </row>
+    <row r="9" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+    </row>
+    <row r="10" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14" cm="1">
+        <f t="array" ref="G10:K14">_xlfn.LET(_xlpm.b,B2:F6,_xlpm.x,IFERROR(_xlpm.b-_xlfn.BYROW(_xlpm.b,_xlfn.LAMBDA(_xlpm.a,MIN(_xlpm.a))),_xlpm.b),
+IFERROR(_xlpm.x-_xlfn.BYCOL(_xlpm.x,_xlfn.LAMBDA(_xlpm.a,MIN(_xlpm.a))),_xlpm.b))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="14" t="str">
+        <v>Task 1</v>
+      </c>
+      <c r="I10" s="14" t="str">
+        <v>Task 2</v>
+      </c>
+      <c r="J10" s="14" t="str">
+        <v>Task 3</v>
+      </c>
+      <c r="K10" s="14" t="str">
+        <v>Task 4</v>
+      </c>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+    </row>
+    <row r="11" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14" t="str">
+        <v>Person 1</v>
+      </c>
+      <c r="H11" s="14">
+        <v>9</v>
+      </c>
+      <c r="I11" s="14">
+        <v>0</v>
+      </c>
+      <c r="J11" s="14">
+        <v>3</v>
+      </c>
+      <c r="K11" s="14">
+        <v>0</v>
+      </c>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
+    </row>
+    <row r="12" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" t="str">
+        <v>Person 2</v>
+      </c>
+      <c r="H12" s="14">
+        <v>0</v>
+      </c>
+      <c r="I12" s="14">
+        <v>10</v>
+      </c>
+      <c r="J12" s="14">
+        <v>4</v>
+      </c>
+      <c r="K12" s="14">
+        <v>1</v>
+      </c>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+    </row>
+    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G13" t="str">
+        <v>Person 3</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G14" t="str">
+        <v>Person 4</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <v>6</v>
+      </c>
+      <c r="L14" s="15"/>
+    </row>
+    <row r="17" spans="7:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G17" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="7:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="I20" s="15"/>
+      <c r="L20" s="15"/>
+    </row>
+    <row r="21" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I21" s="15"/>
+      <c r="L21" s="15"/>
+    </row>
+    <row r="22" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I22" s="15"/>
+      <c r="L22" s="15"/>
+    </row>
+    <row r="23" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I23" s="15"/>
+      <c r="L23" s="15"/>
+    </row>
+    <row r="24" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I24" s="15"/>
+      <c r="L24" s="15"/>
+    </row>
+    <row r="25" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I25" s="15"/>
+      <c r="L25" s="15"/>
+    </row>
+    <row r="26" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I26" s="15"/>
+      <c r="L26" s="15"/>
+    </row>
+    <row r="27" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I27" s="15"/>
+      <c r="L27" s="15"/>
+    </row>
+    <row r="28" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I28" s="15"/>
+      <c r="L28" s="15"/>
+    </row>
+    <row r="29" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I29" s="15"/>
+      <c r="L29" s="15"/>
+    </row>
+    <row r="30" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I30" s="15"/>
+      <c r="L30" s="15"/>
+    </row>
+    <row r="31" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I31" s="15"/>
+      <c r="L31" s="15"/>
+    </row>
+    <row r="32" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I32" s="15"/>
+      <c r="L32" s="15"/>
+    </row>
+    <row r="33" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I33" s="15"/>
+      <c r="L33" s="15"/>
+    </row>
+    <row r="34" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I34" s="15"/>
+      <c r="L34" s="15"/>
+    </row>
+    <row r="35" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I35" s="15"/>
+      <c r="L35" s="15"/>
+    </row>
+    <row r="36" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I36" s="15"/>
+      <c r="L36" s="15"/>
+    </row>
+    <row r="37" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I37" s="15"/>
+      <c r="L37" s="15"/>
+    </row>
+    <row r="38" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I38" s="15"/>
+      <c r="L38" s="15"/>
+    </row>
+    <row r="39" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I39" s="15"/>
+      <c r="L39" s="15"/>
+    </row>
+    <row r="40" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I40" s="15"/>
+      <c r="L40" s="15"/>
+    </row>
+    <row r="41" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L41" s="15"/>
+    </row>
+    <row r="42" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L42" s="15"/>
+    </row>
+    <row r="43" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L43" s="15"/>
+    </row>
+    <row r="44" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L44" s="15"/>
+    </row>
+    <row r="45" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L45" s="15"/>
+    </row>
+    <row r="46" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L46" s="15"/>
+    </row>
+    <row r="47" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L47" s="15"/>
+    </row>
+    <row r="48" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L48" s="15"/>
+    </row>
+    <row r="49" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L49" s="15"/>
+    </row>
+    <row r="50" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L50" s="15"/>
+    </row>
+    <row r="51" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L51" s="15"/>
+    </row>
+    <row r="52" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L52" s="15"/>
+    </row>
+    <row r="53" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L53" s="15"/>
+    </row>
+    <row r="54" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L54" s="15"/>
+    </row>
+    <row r="55" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L55" s="15"/>
+    </row>
+    <row r="56" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L56" s="15"/>
+    </row>
+    <row r="57" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L57" s="15"/>
+    </row>
+    <row r="58" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L58" s="15"/>
+    </row>
+    <row r="59" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L59" s="15"/>
+    </row>
+    <row r="60" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L60" s="15"/>
+    </row>
+    <row r="61" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L61" s="15"/>
+    </row>
+    <row r="62" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L62" s="15"/>
+    </row>
+    <row r="63" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L63" s="15"/>
+    </row>
+    <row r="64" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L64" s="15"/>
+    </row>
+    <row r="65" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L65" s="15"/>
+    </row>
+    <row r="66" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L66" s="15"/>
+    </row>
+    <row r="67" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L67" s="15"/>
+    </row>
+    <row r="68" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L68" s="15"/>
+    </row>
+    <row r="69" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L69" s="15"/>
+    </row>
+    <row r="70" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L70" s="15"/>
+    </row>
+    <row r="71" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L71" s="15"/>
+    </row>
+    <row r="72" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L72" s="15"/>
+    </row>
+    <row r="73" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L73" s="15"/>
+    </row>
+    <row r="74" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L74" s="15"/>
+    </row>
+    <row r="75" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L75" s="15"/>
+    </row>
+    <row r="76" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="O1:S1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>